--- a/420 excel.xlsx
+++ b/420 excel.xlsx
@@ -13,6 +13,41 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Suck</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Toilets</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,6 +518,128 @@
       </c>
       <c r="AP1">
         <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
